--- a/data/scheduling_DNN/predict/0.5/result20.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result20.xlsx
@@ -570,10 +570,10 @@
         <v>1.354251861572266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8605304360389709</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7052984833717346</v>
+        <v>0.2437608391046524</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.955564022064209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4148775339126587</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2059047669172287</v>
+        <v>0.2923418879508972</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9038150310516357</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5161665081977844</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1516174674034119</v>
+        <v>0.1502713710069656</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9646880626678467</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.3972788453102112</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3422277569770813</v>
+        <v>0.3219532072544098</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8624889850616455</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4047695994377136</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1213803142309189</v>
+        <v>0.2095070332288742</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8612699508666992</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5396876335144043</v>
       </c>
       <c r="W7" t="n">
-        <v>0.209466353058815</v>
+        <v>0.1034151837229729</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685240745544434</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4983000755310059</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1246224567294121</v>
+        <v>0.1370658129453659</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9395210742950439</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8699261546134949</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1810652911663055</v>
+        <v>0.004843452945351601</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790268898010254</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.3972320854663849</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1013994514942169</v>
+        <v>0.2321262359619141</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8602771759033203</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8728886246681213</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2085650265216827</v>
+        <v>0.0001590486353961751</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8565349578857422</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4831541776657104</v>
       </c>
       <c r="W12" t="n">
-        <v>0.008342180401086807</v>
+        <v>0.1394132077693939</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9275128841400146</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.4946319460868835</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1019619628787041</v>
+        <v>0.1873859018087387</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8640398979187012</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3972604274749756</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08290945738554001</v>
+        <v>0.2178830802440643</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9009048938751221</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8669505715370178</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1292587220668793</v>
+        <v>0.001152895973064005</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8620569705963135</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.4034629464149475</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07468171417713165</v>
+        <v>0.2103084772825241</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9405431747436523</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8713462352752686</v>
       </c>
       <c r="W17" t="n">
-        <v>3.283191108494066e-05</v>
+        <v>0.004788216203451157</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8664679527282715</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5161192417144775</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1115653142333031</v>
+        <v>0.1227442175149918</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.877453088760376</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.3972610831260681</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2520745992660522</v>
+        <v>0.2305843681097031</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9046781063079834</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8710744976997375</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1074437201023102</v>
+        <v>0.001129202544689178</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9096720218658447</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4246711432933807</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06568393111228943</v>
+        <v>0.2352258563041687</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5249600410461426</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.5273008942604065</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0004442967474460602</v>
+        <v>5.479593710333575e-06</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8609074950218201</v>
       </c>
       <c r="W23" t="n">
-        <v>3.799580736085773e-05</v>
+        <v>0.1160039454698563</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5197029113769531</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5075645446777344</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001675394480116665</v>
+        <v>0.0001473399461247027</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5299079418182373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4111910462379456</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0006545279757119715</v>
+        <v>0.01409370172768831</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5804708003997803</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4898327589035034</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03126448392868042</v>
+        <v>0.008215254172682762</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5123651027679443</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8677208423614502</v>
       </c>
       <c r="W27" t="n">
-        <v>7.958366040838882e-05</v>
+        <v>0.1262777000665665</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.516110360622406</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0281512625515461</v>
+        <v>1.711862296360778e-06</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5309159755706787</v>
       </c>
       <c r="V29" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8944329023361206</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03244751691818237</v>
+        <v>0.1321445554494858</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254321098327637</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.3972694873809814</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01622430048882961</v>
+        <v>0.01642565801739693</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5630111694335938</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.3991115689277649</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0001934199972311035</v>
+        <v>0.02686307951807976</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5267131328582764</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8941720128059387</v>
       </c>
       <c r="W32" t="n">
-        <v>2.39385808527004e-05</v>
+        <v>0.1350260227918625</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V33" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3972532153129578</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01998316682875156</v>
+        <v>0.01393173076212406</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5179731845855713</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4100881814956665</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004530332051217556</v>
+        <v>0.01163917407393456</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5152571201324463</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4008688926696777</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0004809632082469761</v>
+        <v>0.01308466680347919</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5079898834228516</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4830931425094604</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01090043876320124</v>
+        <v>0.0006198477349244058</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.514394998550415</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4141733050346375</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08618967235088348</v>
+        <v>0.01004438754171133</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5184738636016846</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4036116003990173</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02758339792490005</v>
+        <v>0.01319333910942078</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173470973968506</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4047840535640717</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03246962651610374</v>
+        <v>0.01267043873667717</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155758857727051</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.3972375988960266</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02787639759480953</v>
+        <v>0.01400395017117262</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5083720684051514</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8608506321907043</v>
       </c>
       <c r="W41" t="n">
-        <v>3.760004256037064e-05</v>
+        <v>0.1242411360144615</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4416718482971191</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8750374317169189</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001449773670174181</v>
+        <v>0.1878057271242142</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4316799640655518</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5074710249900818</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04892110452055931</v>
+        <v>0.005744284950196743</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.38214111328125</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8978949189186096</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01426650211215019</v>
+        <v>0.2660019993782043</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5135122537612915</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1790356040000916</v>
+        <v>0.01600943133234978</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3888320922851562</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8630689978599548</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1774422079324722</v>
+        <v>0.2249006479978561</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3875329494476318</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8609948754310608</v>
       </c>
       <c r="W47" t="n">
-        <v>0.09177416563034058</v>
+        <v>0.2241661995649338</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911340236663818</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.5403848886489868</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06297008693218231</v>
+        <v>0.02227582037448883</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3867719173431396</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4032086730003357</v>
       </c>
       <c r="W49" t="n">
-        <v>3.272714457125403e-05</v>
+        <v>0.0002701669291127473</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3876190185546875</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3972808122634888</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01968118920922279</v>
+        <v>9.335025970358402e-05</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3867411613464355</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.5141643285751343</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08746440708637238</v>
+        <v>0.01623666286468506</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4399929046630859</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5154541730880737</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1334333270788193</v>
+        <v>0.005694402847439051</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3943779468536377</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8842259645462036</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06097878143191338</v>
+        <v>0.2399510741233826</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3826780319213867</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5156158208847046</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07410457730293274</v>
+        <v>0.0176724549382925</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4045310020446777</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8620930314064026</v>
       </c>
       <c r="W55" t="n">
-        <v>0.2894897758960724</v>
+        <v>0.2093630135059357</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881227970123291</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8616788387298584</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001395367551594973</v>
+        <v>0.2242553234100342</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4915337264537811</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0001909139537019655</v>
+        <v>0.01035298686474562</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3869659900665283</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8579036593437195</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1707580983638763</v>
+        <v>0.2217822819948196</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882980346679688</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8607286214828491</v>
       </c>
       <c r="W59" t="n">
-        <v>0.007978621870279312</v>
+        <v>0.2231906652450562</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3886082172393799</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8669810891151428</v>
       </c>
       <c r="W60" t="n">
-        <v>0.007924897596240044</v>
+        <v>0.2288406044244766</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4338691234588623</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8716104626655579</v>
       </c>
       <c r="W61" t="n">
-        <v>0.006653494667261839</v>
+        <v>0.1916174739599228</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8925290107727051</v>
       </c>
       <c r="V62" t="n">
-        <v>0.531548023223877</v>
+        <v>0.5144755840301514</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1303072720766068</v>
+        <v>0.1429243981838226</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8653850555419922</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8676389455795288</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1321175992488861</v>
+        <v>5.080020400782814e-06</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8578071594238281</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4874486923217773</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1251285970211029</v>
+        <v>0.1371653974056244</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9193859100341797</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.516066312789917</v>
       </c>
       <c r="W65" t="n">
-        <v>0.07641051709651947</v>
+        <v>0.1626666933298111</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8577580451965332</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5160840749740601</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08007455617189407</v>
+        <v>0.1167410984635353</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8747169971466064</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8712738156318665</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1372625380754471</v>
+        <v>1.185549899673788e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9150738716125488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8537836670875549</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06764785945415497</v>
+        <v>0.003756489139050245</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.919395923614502</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8608272671699524</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1632839441299438</v>
+        <v>0.003430287586525083</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8575479984283447</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4153442084789276</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09980559349060059</v>
+        <v>0.1955441981554031</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8619720935821533</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8679547905921936</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02683317475020885</v>
+        <v>3.579266194719821e-05</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8653709888458252</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4262789487838745</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04350194334983826</v>
+        <v>0.1928018182516098</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9216928482055664</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4047501385211945</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2218672037124634</v>
+        <v>0.2672297954559326</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8666291236877441</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5089393854141235</v>
       </c>
       <c r="W74" t="n">
-        <v>0.214327335357666</v>
+        <v>0.1279419511556625</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657879829406738</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4840436577796936</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1505353897809982</v>
+        <v>0.14572873711586</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8658850193023682</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3972519934177399</v>
       </c>
       <c r="W76" t="n">
-        <v>0.003080147551372647</v>
+        <v>0.2196169197559357</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9235298633575439</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8698078989982605</v>
       </c>
       <c r="W77" t="n">
-        <v>0.01159957051277161</v>
+        <v>0.002886049449443817</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8606081008911133</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4024404883384705</v>
       </c>
       <c r="W78" t="n">
-        <v>0.03138478845357895</v>
+        <v>0.2099175602197647</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8655250072479248</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.517303466796875</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1050722748041153</v>
+        <v>0.1212582439184189</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8514149188995361</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8851084113121033</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2506449818611145</v>
+        <v>0.001135251484811306</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9106998443603516</v>
       </c>
       <c r="V81" t="n">
-        <v>0.672245979309082</v>
+        <v>0.3993079364299774</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05686024576425552</v>
+        <v>0.2615216672420502</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5545799732208252</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4890304803848267</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04170116782188416</v>
+        <v>0.004296735860407352</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5165619850158691</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8841282725334167</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02756289020180702</v>
+        <v>0.1351049691438675</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5125730037689209</v>
       </c>
       <c r="V84" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5141761898994446</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1895028948783875</v>
+        <v>2.570205879237619e-06</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5154180526733398</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8641675114631653</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02000899240374565</v>
+        <v>0.1216261833906174</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5519139766693115</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.3974935114383698</v>
       </c>
       <c r="W86" t="n">
-        <v>0.03979430347681046</v>
+        <v>0.02384568005800247</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5145139694213867</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8749618530273438</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01230232324451208</v>
+        <v>0.1299226731061935</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5166299343109131</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4954959154129028</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01602457836270332</v>
+        <v>0.0004466467653401196</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5164880752563477</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4329542517662048</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02745667472481728</v>
+        <v>0.006977899465709925</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5461790561676025</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.3972406983375549</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001879076240584254</v>
+        <v>0.02218263410031796</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.557750940322876</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3972737193107605</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03482960537075996</v>
+        <v>0.02575293928384781</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5169041156768799</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.409324049949646</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02002953737974167</v>
+        <v>0.01157347019761801</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5182931423187256</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4104892015457153</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01803053356707096</v>
+        <v>0.01162168942391872</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5126919746398926</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4008094668388367</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001191969960927963</v>
+        <v>0.01251769531518221</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5174551010131836</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8727012276649475</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0001594412751728669</v>
+        <v>0.1261998116970062</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5192959308624268</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.5122537612915039</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0133881326764822</v>
+        <v>4.959215220878832e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5808908939361572</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.5143545866012573</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0398900993168354</v>
+        <v>0.004427080042660236</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5214481353759766</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8732437491416931</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0003374011430423707</v>
+        <v>0.1237601563334465</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.512747049331665</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5143522024154663</v>
       </c>
       <c r="W99" t="n">
-        <v>0.07296998053789139</v>
+        <v>2.576516408225871e-06</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5123469829559326</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4101492762565613</v>
       </c>
       <c r="W100" t="n">
-        <v>6.657190533587709e-05</v>
+        <v>0.01044437102973461</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5169899463653564</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4994632005691528</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01944622397422791</v>
+        <v>0.0003071868268307298</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4159770011901855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3972664773464203</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0001518385106464848</v>
+        <v>0.0003500836901366711</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4081320762634277</v>
       </c>
       <c r="V103" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4179897904396057</v>
       </c>
       <c r="W103" t="n">
-        <v>0.2854867875576019</v>
+        <v>9.717453212942928e-05</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3999199867248535</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8790793418884277</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002447856590151787</v>
+        <v>0.2295936942100525</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027910232543945</v>
       </c>
       <c r="V105" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8750620484352112</v>
       </c>
       <c r="W105" t="n">
-        <v>0.07248389720916748</v>
+        <v>0.2230399250984192</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.394542932510376</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8678492903709412</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001915232511237264</v>
+        <v>0.2240189015865326</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3877739906311035</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5159912705421448</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04039452224969864</v>
+        <v>0.01643967069685459</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3874669075012207</v>
       </c>
       <c r="V108" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4254832863807678</v>
       </c>
       <c r="W108" t="n">
-        <v>0.3098182678222656</v>
+        <v>0.001445245114155114</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3998849391937256</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.867513120174408</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01810526847839355</v>
+        <v>0.2186761200428009</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3977890014648438</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.5444654226303101</v>
       </c>
       <c r="W110" t="n">
-        <v>3.17991798510775e-05</v>
+        <v>0.02151397243142128</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.5410671234130859</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8617257475852966</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0007483066292479634</v>
+        <v>0.1028219535946846</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4102871417999268</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4035626351833344</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0005215564160607755</v>
+        <v>4.521898881648667e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3891448974609375</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8790708184242249</v>
       </c>
       <c r="W113" t="n">
-        <v>0.04799598082900047</v>
+        <v>0.2400274127721786</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4135980606079102</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8725839853286743</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02200241759419441</v>
+        <v>0.210668072104454</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.420119047164917</v>
       </c>
       <c r="V115" t="n">
-        <v>0.514564037322998</v>
+        <v>0.516717791557312</v>
       </c>
       <c r="W115" t="n">
-        <v>0.008919856511056423</v>
+        <v>0.009331317618489265</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3919508457183838</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.3992714285850525</v>
       </c>
       <c r="W116" t="n">
-        <v>0.000136265967739746</v>
+        <v>5.359093484003097e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3871231079101562</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4996239840984344</v>
       </c>
       <c r="W117" t="n">
-        <v>0.04057767987251282</v>
+        <v>0.01265644747763872</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3947951793670654</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8787736892700195</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01418227702379227</v>
+        <v>0.2342351973056793</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3893699645996094</v>
       </c>
       <c r="V119" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.5201479196548462</v>
       </c>
       <c r="W119" t="n">
-        <v>0.3100327551364899</v>
+        <v>0.01710287295281887</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995180130004883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.403563380241394</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01649016514420509</v>
+        <v>1.636499655432999e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4447309970855713</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4916443228721619</v>
       </c>
       <c r="W121" t="n">
-        <v>0.004785230848938227</v>
+        <v>0.002200860064476728</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8855268955230713</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.5166894197463989</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2321747988462448</v>
+        <v>0.1360410898923874</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9227871894836426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4263773560523987</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1525529623031616</v>
+        <v>0.2464227229356766</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8846330642700195</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.5099852085113525</v>
       </c>
       <c r="W124" t="n">
-        <v>0.004700425080955029</v>
+        <v>0.1403610110282898</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9254310131072998</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8685383796691895</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2003399282693863</v>
+        <v>0.003236771794036031</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5150731801986694</v>
       </c>
       <c r="W126" t="n">
-        <v>0.03178282082080841</v>
+        <v>0.1299507766962051</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8696229457855225</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8665891289710999</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2691945135593414</v>
+        <v>9.204044545185752e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8604490756988525</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.489316463470459</v>
       </c>
       <c r="W128" t="n">
-        <v>0.02626870572566986</v>
+        <v>0.1377394199371338</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.908344030380249</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5158640742301941</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2115452289581299</v>
+        <v>0.154040515422821</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8747379779815674</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8689104914665222</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2728045284748077</v>
+        <v>3.395960084162652e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8641781806945801</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8792272806167603</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04054911062121391</v>
+        <v>0.0002264754148200154</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708858489990234</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.5207559466362</v>
       </c>
       <c r="W132" t="n">
-        <v>0.09603463858366013</v>
+        <v>0.1225909516215324</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>1.040012121200562</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4993281364440918</v>
       </c>
       <c r="W133" t="n">
-        <v>0.252564549446106</v>
+        <v>0.2923391759395599</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8626010417938232</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4256618022918701</v>
       </c>
       <c r="W134" t="n">
-        <v>0.04347474873065948</v>
+        <v>0.1909158974885941</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8808248043060303</v>
       </c>
       <c r="V135" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8674914240837097</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2555511891841888</v>
+        <v>0.0001777790312189609</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8533949851989746</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5181149840354919</v>
       </c>
       <c r="W136" t="n">
-        <v>0.008887258358299732</v>
+        <v>0.1124126762151718</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9238240718841553</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4143698215484619</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2956425845623016</v>
+        <v>0.2595436275005341</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670427799224854</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4105600118637085</v>
       </c>
       <c r="W138" t="n">
-        <v>0.007072730921208858</v>
+        <v>0.2083765119314194</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.861328125</v>
       </c>
       <c r="V139" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8854687213897705</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04258537665009499</v>
+        <v>0.0005827684071846306</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8629481792449951</v>
       </c>
       <c r="V140" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8917853832244873</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2324359118938446</v>
+        <v>0.0008315843297168612</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9176821708679199</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.498538613319397</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2645303606987</v>
+        <v>0.1756813228130341</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5482630729675293</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4027908444404602</v>
       </c>
       <c r="W142" t="n">
-        <v>0.002341450890526175</v>
+        <v>0.02116216905415058</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5196769237518311</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8734307289123535</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01352886203676462</v>
+        <v>0.1251417547464371</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.3972617387771606</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02881746180355549</v>
+        <v>0.01519876439124346</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5188238620758057</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8701106905937195</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01533701829612255</v>
+        <v>0.123402439057827</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.576012134552002</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4257868230342865</v>
       </c>
       <c r="W146" t="n">
-        <v>0.05094820633530617</v>
+        <v>0.02256764471530914</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5310349464416504</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5158944129943848</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0275823287665844</v>
+        <v>0.0002292357530677691</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5219700336456299</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.5161072611808777</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001970537705346942</v>
+        <v>3.437210034462623e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235979557037354</v>
       </c>
       <c r="V149" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3972532749176025</v>
       </c>
       <c r="W149" t="n">
-        <v>0.1784970909357071</v>
+        <v>0.01596297882497311</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5158951282501221</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.416195273399353</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01259368006139994</v>
+        <v>0.009940060786902905</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5120859146118164</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4033121168613434</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01175702549517155</v>
+        <v>0.01183173898607492</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.516077995300293</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.5134093761444092</v>
       </c>
       <c r="W152" t="n">
-        <v>0.07075747847557068</v>
+        <v>7.121528142306488e-06</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5141050815582275</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.3992648124694824</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08581232279539108</v>
+        <v>0.01318828761577606</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5135571956634521</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4985491037368774</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002233886625617743</v>
+        <v>0.0002252428239444271</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195629596710205</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.3974615335464478</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0002326342364540324</v>
+        <v>0.01490875799208879</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5117571353912354</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.8669741153717041</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02102952264249325</v>
+        <v>0.1261790990829468</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5727570056915283</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8797139525413513</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01493046153336763</v>
+        <v>0.09422256797552109</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5174200534820557</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4273619949817657</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0003977184533141553</v>
+        <v>0.008110454306006432</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5205020904541016</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.5016608834266663</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01845210045576096</v>
+        <v>0.0003549910907167941</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5197839736938477</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8979527354240417</v>
       </c>
       <c r="W160" t="n">
-        <v>3.555130024324171e-05</v>
+        <v>0.1430116146802902</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5194149017333984</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.5215577483177185</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0002264197974000126</v>
+        <v>4.591791366692632e-06</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3930768966674805</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4014038741588593</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1827573776245117</v>
+        <v>6.933855183888227e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901159763336182</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8907152414321899</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02294953726232052</v>
+        <v>0.2505996227264404</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3903021812438965</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.3993121087551117</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0133295888081193</v>
+        <v>8.11787904240191e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3930621147155762</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8924717307090759</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0685231015086174</v>
+        <v>0.2494099587202072</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3910620212554932</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.3972803056240082</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02259880676865578</v>
+        <v>3.866706174449064e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3932259082794189</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.3972216248512268</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01988902688026428</v>
+        <v>1.596575020812452e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4023430347442627</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8621140122413635</v>
       </c>
       <c r="W168" t="n">
-        <v>0.009391594678163528</v>
+        <v>0.211389347910881</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4425280094146729</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.5166980028152466</v>
       </c>
       <c r="W169" t="n">
-        <v>3.541283149388619e-05</v>
+        <v>0.0055011878721416</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3961889743804932</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.399107038974762</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02709014341235161</v>
+        <v>8.515101399098057e-06</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.409461498260498</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06415627896785736</v>
+        <v>0.0004094384203199297</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3962669372558594</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4027894139289856</v>
       </c>
       <c r="W172" t="n">
-        <v>0.04160398617386818</v>
+        <v>4.254270243109204e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3929891586303711</v>
       </c>
       <c r="V173" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4987575113773346</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0001394199061905965</v>
+        <v>0.01118694432079792</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3972722291946411</v>
       </c>
       <c r="W174" t="n">
-        <v>5.122006041347049e-05</v>
+        <v>8.494254143442959e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.449537992477417</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8787282705307007</v>
       </c>
       <c r="W175" t="n">
-        <v>0.002604600274935365</v>
+        <v>0.1842042952775955</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3929719924926758</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.870493471622467</v>
       </c>
       <c r="W176" t="n">
-        <v>0.005366264842450619</v>
+        <v>0.2280267626047134</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4005780220031738</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.5198577642440796</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002480109222233295</v>
+        <v>0.01422765664756298</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3936870098114014</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8926085233688354</v>
       </c>
       <c r="W178" t="n">
-        <v>9.837390098255128e-05</v>
+        <v>0.2489226758480072</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929297924041748</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8664122223854065</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0004942974192090333</v>
+        <v>0.2241856157779694</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.387890100479126</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8682006597518921</v>
       </c>
       <c r="W180" t="n">
-        <v>0.02234390936791897</v>
+        <v>0.2306982278823853</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4023661613464355</v>
       </c>
       <c r="V181" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3992412686347961</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01933546736836433</v>
+        <v>9.764954484126065e-06</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8709530830383301</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8751110434532166</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1112711727619171</v>
+        <v>1.728863571770489e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9189059734344482</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3976354897022247</v>
       </c>
       <c r="W183" t="n">
-        <v>0.322760671377182</v>
+        <v>0.2717229425907135</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8743200302124023</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.4263970851898193</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1137090176343918</v>
+        <v>0.2006349712610245</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8938460350036621</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.3992688059806824</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2949198782444</v>
+        <v>0.2446066290140152</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8681211471557617</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8626511693000793</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1334806233644485</v>
+        <v>2.992065856233239e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8859708309173584</v>
       </c>
       <c r="V187" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.491471141576767</v>
       </c>
       <c r="W187" t="n">
-        <v>0.004288129042834044</v>
+        <v>0.1556300073862076</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8645780086517334</v>
       </c>
       <c r="V188" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4262888431549072</v>
       </c>
       <c r="W188" t="n">
-        <v>0.006059543695300817</v>
+        <v>0.192097395658493</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9230661392211914</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4881539940834045</v>
       </c>
       <c r="W189" t="n">
-        <v>0.130675196647644</v>
+        <v>0.1891485750675201</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8635609149932861</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4250521063804626</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2114830613136292</v>
+        <v>0.1922899782657623</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8786489963531494</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4927492141723633</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2786417603492737</v>
+        <v>0.1489186435937881</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8609321117401123</v>
       </c>
       <c r="V192" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8734732866287231</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1557590365409851</v>
+        <v>0.0001572810724610463</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9282732009887695</v>
       </c>
       <c r="V193" t="n">
-        <v>0.782903790473938</v>
+        <v>0.515967845916748</v>
       </c>
       <c r="W193" t="n">
-        <v>0.02113226614892483</v>
+        <v>0.1699957102537155</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8638420104980469</v>
       </c>
       <c r="V194" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5160803198814392</v>
       </c>
       <c r="W194" t="n">
-        <v>0.006453332491219044</v>
+        <v>0.1209381967782974</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8684389591217041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.3972654938697815</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2679663300514221</v>
+        <v>0.2220044285058975</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8597240447998047</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4991673529148102</v>
       </c>
       <c r="W196" t="n">
-        <v>0.02863753773272038</v>
+        <v>0.1300011277198792</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5142719745635986</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1691584289073944</v>
+        <v>0.1692023575305939</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713750839233398</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.5161160826683044</v>
       </c>
       <c r="W198" t="n">
-        <v>0.04688233509659767</v>
+        <v>0.1262089610099792</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8712639808654785</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8629301190376282</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1769984364509583</v>
+        <v>6.945325003471226e-05</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8604650497436523</v>
       </c>
       <c r="V200" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5075350999832153</v>
       </c>
       <c r="W200" t="n">
-        <v>0.006971916183829308</v>
+        <v>0.1245595514774323</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9409980773925781</v>
       </c>
       <c r="V201" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4896282553672791</v>
       </c>
       <c r="W201" t="n">
-        <v>0.08227230608463287</v>
+        <v>0.2037347108125687</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5198400020599365</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.3974987268447876</v>
       </c>
       <c r="W202" t="n">
-        <v>3.705816197907552e-05</v>
+        <v>0.01496738754212856</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5186119079589844</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.5243986845016479</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00274502532556653</v>
+        <v>3.348678365000524e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5283291339874268</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.5152034759521484</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0002116912364726886</v>
+        <v>0.0001722829038044438</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5149800777435303</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8779706358909607</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0208062157034874</v>
+        <v>0.1317621469497681</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194909572601318</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4264404475688934</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01535736862570047</v>
+        <v>0.008658397011458874</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5268590450286865</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4018447697162628</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02296756394207478</v>
+        <v>0.01562856882810593</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5174260139465332</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4063571095466614</v>
       </c>
       <c r="W208" t="n">
-        <v>1.299178620683961e-05</v>
+        <v>0.01233630161732435</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5134661197662354</v>
       </c>
       <c r="V209" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4032096266746521</v>
       </c>
       <c r="W209" t="n">
-        <v>0.02657289244234562</v>
+        <v>0.01215649396181107</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5186221599578857</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4028366804122925</v>
       </c>
       <c r="W210" t="n">
-        <v>0.07031416893005371</v>
+        <v>0.01340627763420343</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5209619998931885</v>
       </c>
       <c r="V211" t="n">
-        <v>0.514474630355835</v>
+        <v>0.3990897536277771</v>
       </c>
       <c r="W211" t="n">
-        <v>4.20859651057981e-05</v>
+        <v>0.01485284417867661</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.572490930557251</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.3972587287425995</v>
       </c>
       <c r="W212" t="n">
-        <v>0.001814559916965663</v>
+        <v>0.03070632368326187</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5224580764770508</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.5160775780677795</v>
       </c>
       <c r="W213" t="n">
-        <v>0.06813508272171021</v>
+        <v>4.071075818501413e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5198771953582764</v>
       </c>
       <c r="V214" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4883142113685608</v>
       </c>
       <c r="W214" t="n">
-        <v>0.08532245457172394</v>
+        <v>0.00099622190464288</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5207560062408447</v>
       </c>
       <c r="V215" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8636464476585388</v>
       </c>
       <c r="W215" t="n">
-        <v>0.06868846714496613</v>
+        <v>0.1175738573074341</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5230591297149658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.5404402613639832</v>
       </c>
       <c r="W216" t="n">
-        <v>8.850031736074015e-05</v>
+        <v>0.0003021037264261395</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5197432041168213</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.425536036491394</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01490116119384766</v>
+        <v>0.008874990046024323</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5274670124053955</v>
       </c>
       <c r="V218" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.8990784287452698</v>
       </c>
       <c r="W218" t="n">
-        <v>0.06584883481264114</v>
+        <v>0.1380950510501862</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5363619327545166</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8655000925064087</v>
       </c>
       <c r="W219" t="n">
-        <v>2.52437312155962e-05</v>
+        <v>0.1083319261670113</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223660469055176</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4983595013618469</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01407989952713251</v>
+        <v>0.0005763142253272235</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5163857936859131</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4031321406364441</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01554454769939184</v>
+        <v>0.01282638963311911</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868558406829834</v>
       </c>
       <c r="V222" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5151288509368896</v>
       </c>
       <c r="W222" t="n">
-        <v>0.156703308224678</v>
+        <v>0.01645396463572979</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4408400058746338</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5010005235671997</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0584457740187645</v>
+        <v>0.003619287861511111</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3950338363647461</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5159784555435181</v>
       </c>
       <c r="W224" t="n">
-        <v>0.001958736218512058</v>
+        <v>0.01462760102003813</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3922538757324219</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4878417551517487</v>
       </c>
       <c r="W225" t="n">
-        <v>0.003156192367896438</v>
+        <v>0.009137042798101902</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3933389186859131</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.3974862098693848</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1683312356472015</v>
+        <v>1.720002364891116e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.393557071685791</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4090434908866882</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01980052702128887</v>
+        <v>0.0002398291835561395</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3950269222259521</v>
       </c>
       <c r="V228" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8674626350402832</v>
       </c>
       <c r="W228" t="n">
-        <v>0.2997015714645386</v>
+        <v>0.2231955081224442</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4323990345001221</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8619276285171509</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1456258594989777</v>
+        <v>0.1844948083162308</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3930180072784424</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4008176922798157</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0003231446316931397</v>
+        <v>6.083508560550399e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3946881294250488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.8814704418182373</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01178549882024527</v>
+        <v>0.2369570136070251</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3986198902130127</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8720672726631165</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0005296967574395239</v>
+        <v>0.2241524308919907</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3958990573883057</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4920076727867126</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01166787091642618</v>
+        <v>0.009236865676939487</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.394061803817749</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.873139500617981</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1720852851867676</v>
+        <v>0.2295154333114624</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3961248397827148</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3972750604152679</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01184061635285616</v>
+        <v>1.323007495557249e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3957741260528564</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4829092621803284</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06710147112607956</v>
+        <v>0.007592531852424145</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3942379951477051</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8899790644645691</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01446989458054304</v>
+        <v>0.2457592040300369</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3947830200195312</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.4101834297180176</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0001894540910143405</v>
+        <v>0.0002371726150158793</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909780979156494</v>
       </c>
       <c r="V239" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4048732221126556</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1542343199253082</v>
+        <v>0.0001930744765559211</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3872981071472168</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.5149627923965454</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1567357778549194</v>
+        <v>0.01629827171564102</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3929729461669922</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8576666712760925</v>
       </c>
       <c r="W241" t="n">
-        <v>0.02201727405190468</v>
+        <v>0.2159402519464493</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8981070518493652</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4008600413799286</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1764457523822784</v>
+        <v>0.2472545951604843</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9124290943145752</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5098835825920105</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05767962709069252</v>
+        <v>0.1620428860187531</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8757648468017578</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8742930293083191</v>
       </c>
       <c r="W244" t="n">
-        <v>0.05340757966041565</v>
+        <v>2.166246758861234e-06</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.5161137580871582</v>
       </c>
       <c r="W245" t="n">
-        <v>0.03850352019071579</v>
+        <v>0.1240472123026848</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8702261447906494</v>
       </c>
       <c r="V246" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4036551415920258</v>
       </c>
       <c r="W246" t="n">
-        <v>0.007560292724519968</v>
+        <v>0.2176885008811951</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.3974815011024475</v>
       </c>
       <c r="W247" t="n">
-        <v>0.05112254247069359</v>
+        <v>0.2208750993013382</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8697900772094727</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.5034841299057007</v>
       </c>
       <c r="W248" t="n">
-        <v>0.04626080021262169</v>
+        <v>0.1341800540685654</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8909769058227539</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.403303325176239</v>
       </c>
       <c r="W249" t="n">
-        <v>0.06205875426530838</v>
+        <v>0.2378255277872086</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8678219318389893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8692805171012878</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1066102311015129</v>
+        <v>2.127470906998497e-06</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8851990699768066</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4913853406906128</v>
       </c>
       <c r="W251" t="n">
-        <v>0.006057483609765768</v>
+        <v>0.155089259147644</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9639170169830322</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4018965363502502</v>
       </c>
       <c r="W252" t="n">
-        <v>0.3394831120967865</v>
+        <v>0.315867006778717</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8971560001373291</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4977998733520508</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1552115678787231</v>
+        <v>0.1594853103160858</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.4940792322158813</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0807177871465683</v>
+        <v>0.1433211714029312</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8707559108734131</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.514466404914856</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1765874922275543</v>
+        <v>0.1269422173500061</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8657369613647461</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8775592446327209</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1053468063473701</v>
+        <v>0.0001397663872921839</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9361629486083984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4998377859592438</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2356763780117035</v>
+        <v>0.1903796494007111</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8673548698425293</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5160277485847473</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2668472528457642</v>
+        <v>0.1234307438135147</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8676390647888184</v>
       </c>
       <c r="V259" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5064383745193481</v>
       </c>
       <c r="W259" t="n">
-        <v>0.006182522512972355</v>
+        <v>0.1304659396409988</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8648619651794434</v>
       </c>
       <c r="V260" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5162755250930786</v>
       </c>
       <c r="W260" t="n">
-        <v>0.003245635190978646</v>
+        <v>0.1215125098824501</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9226889610290527</v>
       </c>
       <c r="V261" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4890743494033813</v>
       </c>
       <c r="W261" t="n">
-        <v>0.01306056883186102</v>
+        <v>0.1880216300487518</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5556530952453613</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8667728304862976</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02310575172305107</v>
+        <v>0.09679549187421799</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5386548042297363</v>
       </c>
       <c r="V263" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8977288007736206</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01390049792826176</v>
+        <v>0.1289341300725937</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5858919620513916</v>
       </c>
       <c r="V264" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8965885639190674</v>
       </c>
       <c r="W264" t="n">
-        <v>0.03883155807852745</v>
+        <v>0.09653238207101822</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5251259803771973</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8715640306472778</v>
       </c>
       <c r="W265" t="n">
-        <v>0.000542439753189683</v>
+        <v>0.1200193241238594</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5170869827270508</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.8659610748291016</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0005899647949263453</v>
+        <v>0.1217131316661835</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340030193328857</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4248800277709961</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02491107024252415</v>
+        <v>0.01190782710909843</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5235750675201416</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8803517818450928</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01444526202976704</v>
+        <v>0.1272896230220795</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5228190422058105</v>
       </c>
       <c r="V269" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8794357776641846</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02976391464471817</v>
+        <v>0.1271754950284958</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166230201721191</v>
       </c>
       <c r="V270" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8748226761817932</v>
       </c>
       <c r="W270" t="n">
-        <v>0.1891885548830032</v>
+        <v>0.1283069998025894</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521543025970459</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8621091246604919</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01973210461437702</v>
+        <v>0.1159852668642998</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5878350734710693</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5159022808074951</v>
       </c>
       <c r="W272" t="n">
-        <v>0.003616219153627753</v>
+        <v>0.005174326710402966</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.522022008895874</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.5150623321533203</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02932124026119709</v>
+        <v>4.843710121349432e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326571464538574</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8860811591148376</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0003487411304377019</v>
+        <v>0.1249085292220116</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5186278820037842</v>
       </c>
       <c r="V275" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.5002648830413818</v>
       </c>
       <c r="W275" t="n">
-        <v>0.07037525624036789</v>
+        <v>0.0003371997445356101</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191760063171387</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.3976054191589355</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01335611008107662</v>
+        <v>0.01477940753102303</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5793061256408691</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8647052645683289</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003939175978302956</v>
+        <v>0.08145266771316528</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5243868827819824</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5161346197128296</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01464485004544258</v>
+        <v>6.8099849158898e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5339791774749756</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8869979977607727</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02206792682409286</v>
+        <v>0.1246222853660583</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.525324821472168</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4985938966274261</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0001371056714560837</v>
+        <v>0.000714542344212532</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196950435638428</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8727904558181763</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02321729995310307</v>
+        <v>0.1246763691306114</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037179946899414</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.491063266992569</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0007939194329082966</v>
+        <v>0.007629196625202894</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4004080295562744</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4105654954910278</v>
       </c>
       <c r="W283" t="n">
-        <v>0.00246369163505733</v>
+        <v>0.0001031741121551022</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3982250690460205</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4849401116371155</v>
       </c>
       <c r="W284" t="n">
-        <v>0.0007576884236186743</v>
+        <v>0.007519498467445374</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4012138843536377</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8744574785232544</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0002040126419160515</v>
+        <v>0.2239595055580139</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974771499633789</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4251776039600372</v>
       </c>
       <c r="W286" t="n">
-        <v>0.170073077082634</v>
+        <v>0.000767315155826509</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3975949287414551</v>
       </c>
       <c r="V287" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4049427211284637</v>
       </c>
       <c r="W287" t="n">
-        <v>0.02065407671034336</v>
+        <v>5.399005385697819e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3988909721374512</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8665817379951477</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1656590551137924</v>
+        <v>0.2187346518039703</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4583911895751953</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8685835003852844</v>
       </c>
       <c r="W289" t="n">
-        <v>0.006826098076999187</v>
+        <v>0.1682577282190323</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3949978351593018</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8621037602424622</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01430180668830872</v>
+        <v>0.2181879431009293</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3990201950073242</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.403376966714859</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01106066908687353</v>
+        <v>1.898146001622081e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.399791955947876</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4031549692153931</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01813959516584873</v>
+        <v>1.130985856434563e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3968961238861084</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.86411052942276</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1625527739524841</v>
+        <v>0.2182893007993698</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3931510448455811</v>
       </c>
       <c r="V294" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4047275185585022</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1523792594671249</v>
+        <v>0.0001340147427981719</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.455409049987793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4264612793922424</v>
       </c>
       <c r="W295" t="n">
-        <v>0.002723784185945988</v>
+        <v>0.0008379734354093671</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964829444885254</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8975639939308167</v>
       </c>
       <c r="W296" t="n">
-        <v>0.07036962360143661</v>
+        <v>0.2510822117328644</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4060459136962891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8988685607910156</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01645541749894619</v>
+        <v>0.2428741604089737</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4002950191497803</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5092191696166992</v>
       </c>
       <c r="W298" t="n">
-        <v>1.105354658648139e-05</v>
+        <v>0.01186447031795979</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3972229957580566</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4048794507980347</v>
       </c>
       <c r="W299" t="n">
-        <v>3.676447886391543e-05</v>
+        <v>5.862130274181254e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964090347290039</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5078938007354736</v>
       </c>
       <c r="W300" t="n">
-        <v>0.02064883522689342</v>
+        <v>0.01242885272949934</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4045429229736328</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4036177098751068</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01691784150898457</v>
+        <v>8.560192554796231e-07</v>
       </c>
     </row>
     <row r="302" spans="1:23">
